--- a/Code/Results/Cases/Case_6_36/lines_states.xlsx
+++ b/Code/Results/Cases/Case_6_36/lines_states.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>name</t>
   </si>
@@ -44,6 +44,12 @@
   </si>
   <si>
     <t>line6</t>
+  </si>
+  <si>
+    <t>line7</t>
+  </si>
+  <si>
+    <t>line8</t>
   </si>
   <si>
     <t>extr1</t>
@@ -425,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -555,10 +561,10 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -572,13 +578,13 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D9">
         <v>9</v>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -589,13 +595,13 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -606,10 +612,10 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -623,7 +629,7 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -643,10 +649,10 @@
         <v>7</v>
       </c>
       <c r="D13">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -657,13 +663,13 @@
         <v>16</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D14">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -674,12 +680,46 @@
         <v>17</v>
       </c>
       <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>11</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>7</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17">
         <v>8</v>
       </c>
-      <c r="D15">
+      <c r="D17">
         <v>5</v>
       </c>
-      <c r="E15" t="b">
+      <c r="E17" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_6_36/lines_states.xlsx
+++ b/Code/Results/Cases/Case_6_36/lines_states.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>name</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t>extr2</t>
+  </si>
+  <si>
+    <t>new1</t>
+  </si>
+  <si>
+    <t>new2</t>
   </si>
   <si>
     <t>extr3</t>
@@ -431,7 +437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -629,13 +635,13 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D12">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -646,10 +652,10 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -663,7 +669,7 @@
         <v>16</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14">
         <v>11</v>
@@ -683,10 +689,10 @@
         <v>7</v>
       </c>
       <c r="D15">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -697,13 +703,13 @@
         <v>18</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D16">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -714,12 +720,46 @@
         <v>19</v>
       </c>
       <c r="C17">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>11</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>7</v>
+      </c>
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19">
         <v>8</v>
       </c>
-      <c r="D17">
+      <c r="D19">
         <v>5</v>
       </c>
-      <c r="E17" t="b">
+      <c r="E19" t="b">
         <v>1</v>
       </c>
     </row>
